--- a/Log1.xlsx
+++ b/Log1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83B78C-4B92-4A74-BA83-0DC971180516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E92F3ED-AA47-448B-8B97-D04CCB8AA081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>21.2</v>
       </c>
       <c r="N9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="N10">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>6.5</v>
       </c>
       <c r="C11">
-        <v>6.73</v>
+        <v>6.75</v>
       </c>
       <c r="D11">
         <v>9.8000000000000007</v>
@@ -821,7 +821,7 @@
         <v>9.4</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>7.5</v>
       </c>
       <c r="C12">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="D12">
         <v>6.6</v>
@@ -847,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>15</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -881,10 +881,10 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <v>9.32</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C14">
-        <v>9.32</v>
+        <v>9.35</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -899,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>9.32</v>
+        <v>9.35</v>
       </c>
       <c r="C15">
-        <v>10.51</v>
+        <v>10.5</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>10.51</v>
+        <v>10.5</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="D17">
         <v>10.199999999999999</v>
@@ -977,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>13.5</v>
       </c>
       <c r="C18">
-        <v>13.78</v>
+        <v>13.75</v>
       </c>
       <c r="D18">
         <v>10.199999999999999</v>
@@ -1012,7 +1012,7 @@
         <v>10.3</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="N19">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>16.5</v>
       </c>
       <c r="C20">
-        <v>16.52</v>
+        <v>16.55</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1090,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C22">
         <v>17.899999999999999</v>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="C23">
-        <v>18.32</v>
+        <v>18.3</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1142,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>18.32</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C24">
         <v>19.350000000000001</v>
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Log1.xlsx
+++ b/Log1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E92F3ED-AA47-448B-8B97-D04CCB8AA081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113AD1E9-CE2F-4B2A-81DE-143A79000721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>9.4</v>
       </c>
       <c r="N11">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="N12">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>15</v>
       </c>
       <c r="N13">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="N14">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="N16">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="N17">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>10.3</v>
       </c>
       <c r="N18">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="N19">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="N20">
-        <v>1200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="N21">
-        <v>2000</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="N22">
-        <v>2000</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="N23">
-        <v>2000</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="N24">
-        <v>2000</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="N25">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
